--- a/3_semestur/hall_effect/hall_effect.xlsx
+++ b/3_semestur/hall_effect/hall_effect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,18 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">I_M_plus, A</t>
   </si>
   <si>
-    <t xml:space="preserve">U_1, mV</t>
+    <t xml:space="preserve">U_1, V</t>
   </si>
   <si>
     <t xml:space="preserve">I_M_minus, A</t>
   </si>
   <si>
-    <t xml:space="preserve">U_2, mV</t>
+    <t xml:space="preserve">U_2, V</t>
   </si>
   <si>
     <t xml:space="preserve">U1-U2/2, V</t>
@@ -60,14 +60,18 @@
   </si>
   <si>
     <t xml:space="preserve">U_41, mV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -140,8 +144,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,7 +225,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -331,11 +339,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15481085"/>
-        <c:axId val="86191320"/>
+        <c:axId val="30999796"/>
+        <c:axId val="84407224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15481085"/>
+        <c:axId val="30999796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,12 +371,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86191320"/>
+        <c:crossAx val="84407224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86191320"/>
+        <c:axId val="84407224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +404,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15481085"/>
+        <c:crossAx val="30999796"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -465,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,12 +532,12 @@
         <v>0.0765</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">0.0088+0.3725*A2</f>
-        <v>0.0833</v>
+        <f aca="false">0.0088+0.3725*A2-0.18368*A2^2</f>
+        <v>0.0759528</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">J$2*E2/(F2*H$2/100)</f>
-        <v>0.00038265306122449</v>
+        <f aca="false">J$2*E2/(F2*H$2/1000)</f>
+        <v>0.004196685309824</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>2.4</v>
@@ -557,12 +565,12 @@
         <v>0.1356</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">0.0088+0.3725*A3</f>
-        <v>0.1578</v>
+        <f aca="false">0.0088+0.3725*A3-0.18368*A3^2</f>
+        <v>0.1284112</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">J$2*E3/(F3*H$2/100)</f>
-        <v>0.000358048162230672</v>
+        <f aca="false">J$2*E3/(F3*H$2/1000)</f>
+        <v>0.00439992773216043</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,12 +591,12 @@
         <v>0.17255</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">0.0088+0.3725*A4</f>
-        <v>0.2323</v>
+        <f aca="false">0.0088+0.3725*A4-0.18368*A4^2</f>
+        <v>0.1661752</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">J$2*E4/(F4*H$2/100)</f>
-        <v>0.000309495623475391</v>
+        <f aca="false">J$2*E4/(F4*H$2/1000)</f>
+        <v>0.00432650800681048</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,12 +617,12 @@
         <v>0.20345</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">0.0088+0.3725*A5</f>
-        <v>0.3068</v>
+        <f aca="false">0.0088+0.3725*A5-0.18368*A5^2</f>
+        <v>0.1892448</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">J$2*E5/(F5*H$2/100)</f>
-        <v>0.000276306497175141</v>
+        <f aca="false">J$2*E5/(F5*H$2/1000)</f>
+        <v>0.00447942735194486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,18 +643,18 @@
         <v>0.23105</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">0.0088+0.3725*A6</f>
-        <v>0.3813</v>
+        <f aca="false">0.0088+0.3725*A6-0.18368*A6^2</f>
+        <v>0.19762</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">J$2*E6/(F6*H$2/100)</f>
-        <v>0.000252480548999038</v>
+        <f aca="false">J$2*E6/(F6*H$2/1000)</f>
+        <v>0.00487151266740883</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(G2:G6)*10^6</f>
-        <v>315.796778620946</v>
+      <c r="G7" s="1" t="n">
+        <f aca="false">AVERAGE(G2:G6)</f>
+        <v>0.00445481221362972</v>
       </c>
     </row>
   </sheetData>
@@ -666,67 +674,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.87"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>114.7</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>169.4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="0" t="n">
+        <f aca="false">PI()*10^-5</f>
+        <v>3.14159265358979E-005</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>282</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2.4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>455</v>
       </c>
     </row>
